--- a/graph_generation/results_prelim/gpt3.5/level_5/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_5/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -54,30 +59,190 @@
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
  H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
     <t>The shortest path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 2/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the shortest path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the shortest path from node A to node X?
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; J -&gt; O -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node X is A -&gt; B -&gt; C -&gt; H -&gt; R -&gt; X.</t>
+  </si>
+  <si>
+    <t>Output: 1/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the shortest path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the shortest path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node Y, we can use the breadth-first search algorithm.
+Starting from node A, we explore its neighboring nodes (B and F). We mark these nodes as visited and add them to a queue. 
+Then, we repeat the process for the next level of nodes in the queue. For node B, we explore its neighboring nodes (A, C, and G). We mark the new nodes as visited and add them to the queue.
+We continue this process until we reach node Y. Once we reach node Y, we can backtrack the shortest path by following the parent pointers from Y back to A.
+Here is the step-by-step process:
+1. Start at node A.
+2. Add node A to the visited set and enqueue it.
+3. While the queue is not empty:
+   a. Dequeue a node from the queue.
+   b. If the dequeued node is Y, we have found the shortest path. Break.
+   c. For each neighbor of the dequeued node that is not visited:
+      i. Mark the neighbor as visited.
+      ii. Enqueue the neighbor.
+      iii. Set the parent of the neighbor as the dequeued node.
+4. Backtrack from node Y to node A using the parent pointers to determine the shortest path.
+Based on the adjacency matrix provided, the shortest path from node A to node Y is: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Output: 9/9</t>
   </si>
 </sst>
 </file>
@@ -435,13 +600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,19 +619,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_5/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_5/k_1.xlsx
@@ -35,7 +35,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node P?
+Example 1: what is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
@@ -55,20 +55,20 @@
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
 Solution: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node P?
+what is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
  J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
@@ -76,21 +76,21 @@
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P.</t>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node P is: A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 2/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t>2/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node Y?
+Example 1: what is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -119,47 +119,90 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
 Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node X?
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+what is the shortest path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; F -&gt; J -&gt; O -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node X is A -&gt; B -&gt; C -&gt; H -&gt; R -&gt; X.</t>
-  </si>
-  <si>
-    <t>Output: 1/6</t>
+    <t>A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node Y, we can use Dijkstra's algorithm. 
+First, we initialize a distance array to store the shortest distance from A to each node and a visited array to keep track of visited nodes. We also initialize a parent array to store the previous node in the shortest path. 
+In this algorithm, we start with node A and set its distance to 0. Then, we update the distances of its neighboring nodes, considering the current node as the parent. We repeat this process, selecting the node with the smallest distance that has not been visited yet, until we reach node Y. 
+Using the given adjacency matrix, we can implement the algorithm as follows:
+1. Initialize distance[], visited[], and parent[] arrays:
+   - distance[A] = 0
+   - for all nodes except A: distance[node] = infinity
+   - visited[A] = true
+   - for all other nodes: visited[node] = false
+   - parent[A] = null
+2. Implement Dijkstra's algorithm:
+   - while Y is not visited:
+     - Find the node with the smallest distance that has not been visited yet and set it as the current node.
+     - Mark the current node as visited.
+     - for each neighbor of the current node:
+       - if the neighbor is not visited and the distance from A to the neighbor via the current node is smaller than the recorded distance:
+         - Update the distance of the neighbor.
+         - Set the current node as the parent of the neighbor.
+3. Build the shortest path sequence from A to Y using the parent[] array:
+   - Start with node Y.
+   - Add each node's parent to the sequence until the current node is A.
+   - Reverse the sequence to get the correct order.
+Applying these steps to the given adjacency matrix:
+1. Initialize:
+   - distance[A] = 0, other distances = infinity
+   - visited[A] = true, other nodes = false
+   - parent[A] = null
+2. Dijkstra's algorithm:
+   - Start with node A.
+   - A is visited.
+   - Update distances:
+     - distance[B] = 1, parent[B] = A
+     - distance[F] = 1, parent[F] = A
+   - Continue the algorithm until Y is visited.
+3. Build the shortest path sequence:
+   - Starting from Y, go through each node's parent until A:
+   - Y -&gt; T -&gt; O -&gt; N -&gt; M -&gt; L -&gt; G -&gt; F -&gt; A
+   - Reverse the sequence to get the correct order:
+   - A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
+Therefore, the shortest path from node A to node Y is A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>4/4</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node Y?
+Example 1: what is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -188,61 +231,55 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
 Solution: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node Y?
+what is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
  U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0
  W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node Y, we can use the breadth-first search algorithm.
-Starting from node A, we explore its neighboring nodes (B and F). We mark these nodes as visited and add them to a queue. 
-Then, we repeat the process for the next level of nodes in the queue. For node B, we explore its neighboring nodes (A, C, and G). We mark the new nodes as visited and add them to the queue.
-We continue this process until we reach node Y. Once we reach node Y, we can backtrack the shortest path by following the parent pointers from Y back to A.
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node Y, we can use the Breadth-First Search (BFS) algorithm. Starting from node A, we traverse the graph level by level, exploring all the nodes at a given level before moving to nodes at the next level. 
 Here is the step-by-step process:
 1. Start at node A.
-2. Add node A to the visited set and enqueue it.
-3. While the queue is not empty:
-   a. Dequeue a node from the queue.
-   b. If the dequeued node is Y, we have found the shortest path. Break.
-   c. For each neighbor of the dequeued node that is not visited:
-      i. Mark the neighbor as visited.
-      ii. Enqueue the neighbor.
-      iii. Set the parent of the neighbor as the dequeued node.
-4. Backtrack from node Y to node A using the parent pointers to determine the shortest path.
-Based on the adjacency matrix provided, the shortest path from node A to node Y is: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y.</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Output: 9/9</t>
+2. Mark node A as visited.
+3. Add node A to the queue.
+4. While the queue is not empty, do the following steps:
+   - Remove the first node from the queue.
+   - Check if the removed node is node Y. If yes, we have found the shortest path and we can stop.
+   - Otherwise, for each neighbor of the removed node that has not been visited yet, do the following steps:
+     - Mark the neighbor as visited.
+     - Add the neighbor to the queue.
+     - Keep track of the path from node A to the current neighbor.
+Following this process, the shortest path from node A to node Y is: A -&gt; F -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>1/9</t>
   </si>
 </sst>
 </file>
@@ -681,10 +718,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -719,16 +756,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
